--- a/DKSalaries_11022014_6pm_optimization.xlsx
+++ b/DKSalaries_11022014_6pm_optimization.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:S120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1348,14 +1348,14 @@
       </c>
       <c r="Q1" s="2">
         <f>SUM(H2:H120)</f>
-        <v>282.25</v>
+        <v>279</v>
       </c>
       <c r="R1" t="s">
         <v>108</v>
       </c>
       <c r="S1">
         <f>SUM(J:J)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -1414,14 +1414,14 @@
       </c>
       <c r="Q2">
         <f>SUM(I2:I120)</f>
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="R2" t="s">
         <v>112</v>
       </c>
       <c r="S2">
         <f>SUM(K:K)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -2171,19 +2171,18 @@
         <v>30.625</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>30.625</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>30.625</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -2199,7 +2198,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
@@ -2223,8 +2222,7 @@
         <v>30.125</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>30.125</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2587,8 +2585,7 @@
         <v>27.75</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
-        <v>27.75</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2955,19 +2952,19 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
@@ -3003,8 +3000,7 @@
         <v>20.5</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3163,15 +3159,15 @@
         <v>19.375</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.375</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
@@ -3187,7 +3183,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
@@ -3941,15 +3937,15 @@
         <v>18</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
@@ -3957,7 +3953,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <f t="shared" si="7"/>
